--- a/static/files/quotation_template.xlsx
+++ b/static/files/quotation_template.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">   艾力克電機股份有限公司</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -526,6 +526,14 @@
   </si>
   <si>
     <t>ITEM_LIST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM_CHINESS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1177,6 +1185,84 @@
     <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1272,84 +1358,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -20284,7 +20292,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E16"/>
+      <selection activeCell="C28" sqref="C28:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="16.2"/>
@@ -20933,57 +20941,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="101"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="G2" s="2"/>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="102"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="102"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="19.8">
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:11">
@@ -20993,19 +21001,19 @@
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="92"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="9" t="s">
         <v>9</v>
       </c>
@@ -21017,19 +21025,19 @@
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="93"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="9" t="s">
         <v>12</v>
       </c>
@@ -21039,19 +21047,19 @@
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="95"/>
+      <c r="H9" s="58"/>
       <c r="I9" s="14" t="s">
         <v>46</v>
       </c>
@@ -21063,19 +21071,19 @@
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="95"/>
+      <c r="H10" s="58"/>
       <c r="I10" s="14" t="s">
         <v>17</v>
       </c>
@@ -21087,15 +21095,15 @@
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="44" t="s">
         <v>47</v>
       </c>
@@ -21110,12 +21118,12 @@
       <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
@@ -21137,10 +21145,10 @@
       <c r="A14" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
@@ -21150,10 +21158,10 @@
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="18"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="19"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
@@ -21163,10 +21171,10 @@
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="18"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="19"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
@@ -21176,10 +21184,10 @@
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="20"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="19"/>
       <c r="G17" s="16"/>
       <c r="H17" s="21"/>
@@ -21189,10 +21197,10 @@
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="20"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="19"/>
       <c r="G18" s="16"/>
       <c r="H18" s="21"/>
@@ -21202,10 +21210,10 @@
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="20"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="19"/>
       <c r="G19" s="16"/>
       <c r="H19" s="21"/>
@@ -21215,10 +21223,10 @@
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="20"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="19"/>
       <c r="G20" s="16"/>
       <c r="H20" s="21"/>
@@ -21227,10 +21235,10 @@
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="20"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="70"/>
       <c r="F21" s="19"/>
       <c r="G21" s="16"/>
       <c r="H21" s="21">
@@ -21242,10 +21250,10 @@
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="20"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="19"/>
       <c r="G22" s="16"/>
       <c r="H22" s="21"/>
@@ -21254,10 +21262,10 @@
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="25"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="19"/>
       <c r="G23" s="26"/>
       <c r="H23" s="22"/>
@@ -21266,10 +21274,10 @@
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="25"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="19"/>
       <c r="G24" s="26"/>
       <c r="H24" s="22"/>
@@ -21278,10 +21286,10 @@
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="19"/>
       <c r="G25" s="26"/>
       <c r="H25" s="22"/>
@@ -21290,10 +21298,10 @@
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="25"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="27"/>
       <c r="G26" s="26"/>
       <c r="H26" s="28"/>
@@ -21302,10 +21310,10 @@
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="A27" s="30"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
       <c r="H27" s="33"/>
@@ -21313,38 +21321,36 @@
       <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63">
-        <f>ROUND(A29,0)</f>
-        <v>0</v>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88" t="s">
+        <v>63</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="69" t="s">
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="94" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" thickBot="1">
-      <c r="A29" s="71">
-        <f>SUM(I14:I22)</f>
-        <v>0</v>
+      <c r="A29" s="96" t="s">
+        <v>62</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="70"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="95"/>
     </row>
     <row r="30" spans="1:11" ht="17.399999999999999">
       <c r="A30" s="35" t="s">
@@ -21407,15 +21413,15 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="73" t="s">
+      <c r="F34" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="99"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="77"/>
+      <c r="J34" s="102"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="41" t="s">
@@ -21424,11 +21430,11 @@
       <c r="B35" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="81"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="42" t="s">
@@ -21437,11 +21443,11 @@
       <c r="D36" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="83"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="42" t="s">
@@ -21450,11 +21456,11 @@
       <c r="D37" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="83"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="42" t="s">
@@ -21463,11 +21469,11 @@
       <c r="D38" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="83"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="42" t="s">
@@ -21476,11 +21482,11 @@
       <c r="D39" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="83"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="43" t="s">
@@ -21489,20 +21495,34 @@
       <c r="D40" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="60"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="F35:H40"/>
+    <mergeCell ref="I35:J40"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="B7:E7"/>
@@ -21516,26 +21536,12 @@
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F35:H40"/>
-    <mergeCell ref="I35:J40"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
